--- a/xlsx/了不起的盖茨比_intext.xlsx
+++ b/xlsx/了不起的盖茨比_intext.xlsx
@@ -29,7 +29,7 @@
     <t>了不起的盖茨比 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_了不起的盖茨比</t>
+    <t>政策_政策_美国_了不起的盖茨比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E6%96%AF%E7%A7%91%E7%89%B9%C2%B7%E8%8F%B2%E8%8C%A8%E6%9D%B0%E6%8B%89%E5%BE%B7</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>小說</t>
+    <t>小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%8B%E9%87%8C%E5%B8%83%E7%BA%B3%E4%B9%8B%E5%AD%90%E5%85%AC%E5%8F%B8</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%A3%9D%E6%9B%B8</t>
   </si>
   <si>
-    <t>精裝書</t>
+    <t>精装书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%A3%9D%E6%9B%B8</t>
   </si>
   <si>
-    <t>平裝書</t>
+    <t>平装书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
@@ -107,31 +107,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長島 (紐約州)</t>
+    <t>长岛 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%AF%87%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>中篇小說</t>
+    <t>中篇小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國文學</t>
+    <t>美国文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>爵士時代</t>
+    <t>爵士时代</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jay_Gatsby</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E8%89%B2%E6%B5%B7%E5%B2%B8</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%E5%A8%81%E7%88%BE%C2%B7%E6%9F%8F%E9%87%91%E6%96%AF</t>
   </si>
   <si>
-    <t>麥克斯威爾·柏金斯</t>
+    <t>麦克斯威尔·柏金斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E9%AB%98</t>
   </si>
   <si>
-    <t>喬治高</t>
+    <t>乔治高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E5%AE%81%E5%9D%A4</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B0%89</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E9%81%94%C2%B7%E8%B3%BD%E7%88%BE</t>
   </si>
   <si>
-    <t>塞爾達·賽爾</t>
+    <t>塞尔达·赛尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E7%9B%9B%E8%8D%89%E5%8E%9F%E5%8F%AF%E4%B9%90%E5%A8%9C%E5%85%AC%E5%9B%AD</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6</t>
@@ -239,25 +239,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%90%83</t>
   </si>
   <si>
-    <t>馬球</t>
+    <t>马球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E5%84%AA%E8%B6%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>白人優越主義</t>
+    <t>白人优越主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界大賽</t>
+    <t>世界大赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1919%E5%B9%B4%E4%B8%96%E7%95%8C%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>1919年世界大賽</t>
+    <t>1919年世界大赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Beacon_Towers</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E7%99%BC%E6%88%B6</t>
   </si>
   <si>
-    <t>暴發戶</t>
+    <t>暴发户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E8%97%8D%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>蔚藍海岸</t>
+    <t>蔚蓝海岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%98%8E%E5%A8%81</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8B%95%E7%9A%84%E9%A5%97%E5%AE%B4</t>
   </si>
   <si>
-    <t>流動的饗宴</t>
+    <t>流动的飨宴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅來納大學</t>
+    <t>南卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>派拉蒙電影</t>
+    <t>派拉蒙电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A0%B1%E5%A5%B3%E9%83%8E</t>
   </si>
   <si>
-    <t>海報女郎</t>
+    <t>海报女郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%BF%97%E9%AB%98</t>
   </si>
   <si>
-    <t>喬志高</t>
+    <t>乔志高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91%E4%B8%8A%E6%98%A5%E6%A0%91</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%89%A7</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BA%A8%E5%B0%8F%E5%82%B3_(1926%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>大亨小傳 (1926年電影)</t>
+    <t>大亨小传 (1926年电影)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Herbert_Brenon</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%81%B2%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>無聲電影</t>
+    <t>无声电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%99%BD</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%C2%B7%E5%B7%B4%E5%A3%AB%E9%81%94</t>
   </si>
   <si>
-    <t>華納·巴士達</t>
+    <t>华纳·巴士达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lois_Wilson_(actress)</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E5%A4%B1%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>散失電影</t>
+    <t>散失电影</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elliott_Nugent</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%8B%94%C2%B7%E7%83%88%E7%A6%8F</t>
   </si>
   <si>
-    <t>羅拔·烈福</t>
+    <t>罗拔·烈福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E4%BA%9A%C2%B7%E6%B3%95%E7%BD%97</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%C2%B7%E5%92%8C%E9%81%94%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>森·和達士頓</t>
+    <t>森·和达士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%C2%B7%E4%B8%B9</t>
   </si>
   <si>
-    <t>布魯斯·丹</t>
+    <t>布鲁斯·丹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Scott_Wilson</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E8%93%AE%C2%B7%E7%99%BD%E7%83%88</t>
   </si>
   <si>
-    <t>嘉蓮·白烈</t>
+    <t>嘉莲·白烈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Robert_Markowitz</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電視電影</t>
+    <t>电视电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E6%AF%94%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%B4%BB%E7%89%B9</t>
   </si>
   <si>
-    <t>保羅·活特</t>
+    <t>保罗·活特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%8B%89%C2%B7%E7%B4%A2%E7%BB%B4%E8%AF%BA</t>
@@ -545,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%AE%89%E7%B4%8D%E5%BA%A6%C2%B7%E7%8B%84%E5%8D%A1%E6%AF%94%E5%A5%A7</t>
   </si>
   <si>
-    <t>里安納度·狄卡比奧</t>
+    <t>里安纳度·狄卡比奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%AF%94%C2%B7%E9%BA%A5%E5%A5%8E%E7%88%BE</t>
   </si>
   <si>
-    <t>杜比·麥奎爾</t>
+    <t>杜比·麦奎尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%8E%89%C2%B7%E7%A9%86%E9%87%8C%E6%A0%B9</t>
   </si>
   <si>
-    <t>凱莉·穆里根</t>
+    <t>凯莉·穆里根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%86%E4%B8%8D%E8%B5%B7%E7%9A%84%E7%9B%96%E8%8C%A8%E6%AF%94_(%E6%AD%8C%E5%89%A7)</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E6%AD%8C%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>大都會歌劇院</t>
+    <t>大都会歌剧院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E5%86%A2%E6%AD%8C%E5%89%A7%E5%9B%A2</t>
@@ -599,19 +599,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E5%BA%AB%E7%B8%A3</t>
   </si>
   <si>
-    <t>兵庫縣</t>
+    <t>兵库县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E5%A1%9A%E5%B8%82</t>
   </si>
   <si>
-    <t>寶塚市</t>
+    <t>宝冢市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E5%A1%9A%E5%A4%A7%E5%8A%87%E5%A0%B4</t>
   </si>
   <si>
-    <t>寶塚大劇場</t>
+    <t>宝冢大剧场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Pittsburgh_Post-Gazette</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
